--- a/lists_for_translator.xlsx
+++ b/lists_for_translator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\PycharmProjects\pythonProject_TranslatorMeets Zen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\PycharmProjects\chatterbird_revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0950DAF5-47EB-46B9-B0A3-1CE3B9042570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7FB8DA-5325-4F86-9F1C-9687598B270A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="3240" windowWidth="19344" windowHeight="8964" xr2:uid="{A4ABEF32-ABB1-47D8-A5EA-945E0E66EE28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A4ABEF32-ABB1-47D8-A5EA-945E0E66EE28}"/>
   </bookViews>
   <sheets>
     <sheet name="управление" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>факультет</t>
   </si>
@@ -187,6 +187,186 @@
   </si>
   <si>
     <t>полное название элемента (keys)</t>
+  </si>
+  <si>
+    <t>факультет дополнительного профессионального образования Академии ЛИМТУ</t>
+  </si>
+  <si>
+    <t>no translation</t>
+  </si>
+  <si>
+    <t>факультет "Институт международного бизнеса и права"</t>
+  </si>
+  <si>
+    <t>Faculty of International Business and Law</t>
+  </si>
+  <si>
+    <t>факультет инфокоммуникационных технологий</t>
+  </si>
+  <si>
+    <t>Faculty of Infocommunication Technologies</t>
+  </si>
+  <si>
+    <t>факультет информационных технологий и программирования</t>
+  </si>
+  <si>
+    <t>Information Technologies and Programming Faculty</t>
+  </si>
+  <si>
+    <t>факультет компьютерных технологий и управления</t>
+  </si>
+  <si>
+    <t>Faculty of Computer Technologies and Control Systems</t>
+  </si>
+  <si>
+    <t>факультет криогенной техники и кондиционирования</t>
+  </si>
+  <si>
+    <t>Faculty of Cryogenic Techniques and Air Conditioning</t>
+  </si>
+  <si>
+    <t>факультет лазерной и световой инженерии</t>
+  </si>
+  <si>
+    <t>Faculty of Laser and Light Engineering</t>
+  </si>
+  <si>
+    <t>факультет методов и техники управления "Академия ЛИМТУ"</t>
+  </si>
+  <si>
+    <t>Faculty of Management and Automation Controls</t>
+  </si>
+  <si>
+    <t>факультет наноэлектроники</t>
+  </si>
+  <si>
+    <t>Faculty of Nanoelectronics</t>
+  </si>
+  <si>
+    <t>факультет оптико-информационных систем и технологий</t>
+  </si>
+  <si>
+    <t>Faculty of Optical Information Systems and Technologies</t>
+  </si>
+  <si>
+    <t>факультет пищевой инженерии и автоматизации</t>
+  </si>
+  <si>
+    <t>Faculty of Food Engineering and Automatization</t>
+  </si>
+  <si>
+    <t>факультет пищевых технологий</t>
+  </si>
+  <si>
+    <t>Faculty of Food Technology</t>
+  </si>
+  <si>
+    <t>факультет повышения квалификации преподавателей</t>
+  </si>
+  <si>
+    <t>Faculty of Advanced Training of Teachers</t>
+  </si>
+  <si>
+    <t>факультет программной инженерии и компьютерной техники</t>
+  </si>
+  <si>
+    <t>Faculty of Software Engineering and Computer Systems</t>
+  </si>
+  <si>
+    <t>факультет профориентации и довузовской подготовки</t>
+  </si>
+  <si>
+    <t>Faculty of Career Development and Pre-Entry Preparatory Training</t>
+  </si>
+  <si>
+    <t>факультет систем управления и робототехники</t>
+  </si>
+  <si>
+    <t>Faculty of Control Systems and Robotics</t>
+  </si>
+  <si>
+    <t>факультет среднего профессионального образования</t>
+  </si>
+  <si>
+    <t>Faculty of Secondary Vocational Education</t>
+  </si>
+  <si>
+    <t>факультет технологического менеджмента и инноваций</t>
+  </si>
+  <si>
+    <t>Faculty of Technological Management and Innovations</t>
+  </si>
+  <si>
+    <t>факультет точной механики и технологий</t>
+  </si>
+  <si>
+    <t>Fine Mechanics and Technologies Faculty</t>
+  </si>
+  <si>
+    <t>факультет фотоники</t>
+  </si>
+  <si>
+    <t>Faculty of Photonics</t>
+  </si>
+  <si>
+    <t>факультет холодильной техники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faculty of Refrigeration Equipment </t>
+  </si>
+  <si>
+    <t>факультет цифровых трансформаций</t>
+  </si>
+  <si>
+    <t>Faculty of Digital Transformation</t>
+  </si>
+  <si>
+    <t>факультет экономики и экологического менеджмента</t>
+  </si>
+  <si>
+    <t>Faculty of Economics and Environmental Management</t>
+  </si>
+  <si>
+    <t>факультет экотехнологий</t>
+  </si>
+  <si>
+    <t>мегафакультет биотехнологий и низкотемпературных систем</t>
+  </si>
+  <si>
+    <t>School of Biotechnology and Cryogenic Systems</t>
+  </si>
+  <si>
+    <t>мегафакультет компьютерных технологий и управления</t>
+  </si>
+  <si>
+    <t>School of Computer Technologies and Control</t>
+  </si>
+  <si>
+    <t>мегафакультет наук о жизни</t>
+  </si>
+  <si>
+    <t>School of Life Sciences</t>
+  </si>
+  <si>
+    <t>мегафакультет трансляционных информационных технологий</t>
+  </si>
+  <si>
+    <t>School of Translational Information Technologies</t>
+  </si>
+  <si>
+    <t>мегафакультет</t>
+  </si>
+  <si>
+    <t>мегафакультета</t>
+  </si>
+  <si>
+    <t>мегафакультету</t>
+  </si>
+  <si>
+    <t>мегафакультетом</t>
+  </si>
+  <si>
+    <t>мегафакультете</t>
   </si>
 </sst>
 </file>
@@ -202,16 +382,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Open Sans"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,11 +439,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E246C7-557F-43C9-A2FF-F041F12063BE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C11" sqref="C11:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,141 +774,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE878CED-5586-44F7-9198-BCEF99FB6A4B}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,133 +1188,515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
